--- a/medicine/Mort/Liste_d'orants_en_France/Liste_d'orants_en_France.xlsx
+++ b/medicine/Mort/Liste_d'orants_en_France/Liste_d'orants_en_France.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_d%27orants_en_France</t>
+          <t>Liste_d'orants_en_France</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette page est destinée à fournir une liste non exhaustive des principaux orants funéraires situés en France. Elle est articulée dans l'ordre géographique, par département, puis par commune, puis par lieu ou édifice (cimetière, église, musée, autre), puis par personnage par ordre chronologique.
 NOTA : sont exclus de cette liste les gisants sculptés et personnages en prière des Mises au Tombeau sculptées, et statues non funéraires.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_d%27orants_en_France</t>
+          <t>Liste_d'orants_en_France</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,7 +534,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_d%27orants_en_France</t>
+          <t>Liste_d'orants_en_France</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -539,6 +553,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -546,7 +562,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_d%27orants_en_France</t>
+          <t>Liste_d'orants_en_France</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -565,6 +581,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -572,7 +590,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_d%27orants_en_France</t>
+          <t>Liste_d'orants_en_France</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -591,6 +609,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -598,7 +618,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_d%27orants_en_France</t>
+          <t>Liste_d'orants_en_France</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -617,6 +637,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -624,7 +646,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Liste_d%27orants_en_France</t>
+          <t>Liste_d'orants_en_France</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -643,6 +665,8 @@
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -650,7 +674,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Liste_d%27orants_en_France</t>
+          <t>Liste_d'orants_en_France</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -669,6 +693,8 @@
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -676,7 +702,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Liste_d%27orants_en_France</t>
+          <t>Liste_d'orants_en_France</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -695,6 +721,8 @@
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -702,7 +730,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Liste_d%27orants_en_France</t>
+          <t>Liste_d'orants_en_France</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -721,6 +749,8 @@
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -728,7 +758,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Liste_d%27orants_en_France</t>
+          <t>Liste_d'orants_en_France</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -747,6 +777,8 @@
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -754,7 +786,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Liste_d%27orants_en_France</t>
+          <t>Liste_d'orants_en_France</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -773,6 +805,8 @@
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -780,7 +814,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Liste_d%27orants_en_France</t>
+          <t>Liste_d'orants_en_France</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -799,6 +833,8 @@
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -806,7 +842,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Liste_d%27orants_en_France</t>
+          <t>Liste_d'orants_en_France</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -825,6 +861,8 @@
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -832,7 +870,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Liste_d%27orants_en_France</t>
+          <t>Liste_d'orants_en_France</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -851,6 +889,8 @@
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -858,7 +898,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Liste_d%27orants_en_France</t>
+          <t>Liste_d'orants_en_France</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -877,6 +917,8 @@
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -884,7 +926,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Liste_d%27orants_en_France</t>
+          <t>Liste_d'orants_en_France</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -903,6 +945,8 @@
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -910,7 +954,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Liste_d%27orants_en_France</t>
+          <t>Liste_d'orants_en_France</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -929,6 +973,8 @@
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -936,7 +982,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Liste_d%27orants_en_France</t>
+          <t>Liste_d'orants_en_France</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -955,6 +1001,8 @@
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -962,7 +1010,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Liste_d%27orants_en_France</t>
+          <t>Liste_d'orants_en_France</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -981,6 +1029,8 @@
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -988,7 +1038,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Liste_d%27orants_en_France</t>
+          <t>Liste_d'orants_en_France</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1007,6 +1057,8 @@
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1014,7 +1066,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Liste_d%27orants_en_France</t>
+          <t>Liste_d'orants_en_France</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1033,6 +1085,8 @@
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1040,7 +1094,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Liste_d%27orants_en_France</t>
+          <t>Liste_d'orants_en_France</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1059,6 +1113,8 @@
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1066,7 +1122,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Liste_d%27orants_en_France</t>
+          <t>Liste_d'orants_en_France</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1085,6 +1141,8 @@
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1092,7 +1150,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Liste_d%27orants_en_France</t>
+          <t>Liste_d'orants_en_France</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1111,6 +1169,8 @@
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1118,7 +1178,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Liste_d%27orants_en_France</t>
+          <t>Liste_d'orants_en_France</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1137,6 +1197,8 @@
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1144,7 +1206,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Liste_d%27orants_en_France</t>
+          <t>Liste_d'orants_en_France</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1163,6 +1225,8 @@
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1170,7 +1234,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Liste_d%27orants_en_France</t>
+          <t>Liste_d'orants_en_France</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1189,6 +1253,8 @@
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1196,7 +1262,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Liste_d%27orants_en_France</t>
+          <t>Liste_d'orants_en_France</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1215,6 +1281,8 @@
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1222,7 +1290,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Liste_d%27orants_en_France</t>
+          <t>Liste_d'orants_en_France</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1241,6 +1309,8 @@
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1248,7 +1318,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Liste_d%27orants_en_France</t>
+          <t>Liste_d'orants_en_France</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1267,6 +1337,8 @@
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1274,7 +1346,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Liste_d%27orants_en_France</t>
+          <t>Liste_d'orants_en_France</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1293,6 +1365,8 @@
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1300,7 +1374,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Liste_d%27orants_en_France</t>
+          <t>Liste_d'orants_en_France</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1319,6 +1393,8 @@
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1326,7 +1402,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Liste_d%27orants_en_France</t>
+          <t>Liste_d'orants_en_France</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1345,6 +1421,8 @@
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1352,7 +1430,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Liste_d%27orants_en_France</t>
+          <t>Liste_d'orants_en_France</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1371,6 +1449,8 @@
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1378,7 +1458,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Liste_d%27orants_en_France</t>
+          <t>Liste_d'orants_en_France</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1397,6 +1477,8 @@
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1404,7 +1486,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Liste_d%27orants_en_France</t>
+          <t>Liste_d'orants_en_France</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1423,6 +1505,8 @@
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1430,7 +1514,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Liste_d%27orants_en_France</t>
+          <t>Liste_d'orants_en_France</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1449,6 +1533,8 @@
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1456,7 +1542,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Liste_d%27orants_en_France</t>
+          <t>Liste_d'orants_en_France</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1475,6 +1561,8 @@
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1482,7 +1570,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Liste_d%27orants_en_France</t>
+          <t>Liste_d'orants_en_France</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1501,6 +1589,8 @@
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1508,7 +1598,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Liste_d%27orants_en_France</t>
+          <t>Liste_d'orants_en_France</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1527,6 +1617,8 @@
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1534,7 +1626,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Liste_d%27orants_en_France</t>
+          <t>Liste_d'orants_en_France</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1553,6 +1645,8 @@
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1560,7 +1654,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Liste_d%27orants_en_France</t>
+          <t>Liste_d'orants_en_France</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1579,6 +1673,8 @@
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1586,7 +1682,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Liste_d%27orants_en_France</t>
+          <t>Liste_d'orants_en_France</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1605,6 +1701,8 @@
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
